--- a/public/template/auction.xlsx
+++ b/public/template/auction.xlsx
@@ -11,21 +11,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +91,26 @@
   </si>
   <si>
     <t>脚气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台/地域/病种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑郁症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失眠症</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,15 +166,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,57 +470,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -530,13 +544,13 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -559,10 +573,10 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>360</v>
@@ -588,13 +602,13 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -617,13 +631,13 @@
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -646,13 +660,13 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -675,13 +689,13 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -704,14 +718,14 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
@@ -731,8 +745,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="E15" s="2"/>
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>360</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
